--- a/Week6/dictionary/ic2021_ay.xlsx
+++ b/Week6/dictionary/ic2021_ay.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Fall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C2500-C69D-B640-8121-A10EC87852FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-60" windowWidth="14625" windowHeight="11640"/>
+    <workbookView xWindow="4580" yWindow="1140" windowWidth="20140" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="541">
   <si>
     <t>varnumber</t>
   </si>
@@ -2450,11 +2451,14 @@
 FIRST-YEAR STUDENT A student who has completed less than the equivalent of 1 full year of undergraduate work; that is, less than 30 semester hours (in a 120-hour degree program) or less than 900 clock hours. 
 ACADEMIC YEAR - The period of time generally extending from September to June; usually equated to 2 semesters or trimesters, 3 quarters, or the period covered by a 4-1-4 plan. Also included are "Other Academic calendar Systems" which is a category used to describe "non-traditional" calendar systems at 4-year and 2-year degree-granting institutions. These can include schools that offer primarily on-line courses or "one course at a time".</t>
   </si>
+  <si>
+    <t>PK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -2529,7 +2533,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2559,6 +2563,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2579,9 +2586,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2600,9 +2604,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2640,9 +2644,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2677,7 +2681,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2712,7 +2716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2885,252 +2889,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="256" width="9.140625" style="1"/>
-    <col min="257" max="257" width="20.28515625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="10.7109375" style="1" customWidth="1"/>
-    <col min="259" max="512" width="9.140625" style="1"/>
-    <col min="513" max="513" width="20.28515625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="10.7109375" style="1" customWidth="1"/>
-    <col min="515" max="768" width="9.140625" style="1"/>
-    <col min="769" max="769" width="20.28515625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="10.7109375" style="1" customWidth="1"/>
-    <col min="771" max="1024" width="9.140625" style="1"/>
-    <col min="1025" max="1025" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.7109375" style="1" customWidth="1"/>
-    <col min="1027" max="1280" width="9.140625" style="1"/>
-    <col min="1281" max="1281" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.7109375" style="1" customWidth="1"/>
-    <col min="1283" max="1536" width="9.140625" style="1"/>
-    <col min="1537" max="1537" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.7109375" style="1" customWidth="1"/>
-    <col min="1539" max="1792" width="9.140625" style="1"/>
-    <col min="1793" max="1793" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.7109375" style="1" customWidth="1"/>
-    <col min="1795" max="2048" width="9.140625" style="1"/>
-    <col min="2049" max="2049" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2051" max="2304" width="9.140625" style="1"/>
-    <col min="2305" max="2305" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2307" max="2560" width="9.140625" style="1"/>
-    <col min="2561" max="2561" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2563" max="2816" width="9.140625" style="1"/>
-    <col min="2817" max="2817" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2819" max="3072" width="9.140625" style="1"/>
-    <col min="3073" max="3073" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3075" max="3328" width="9.140625" style="1"/>
-    <col min="3329" max="3329" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3331" max="3584" width="9.140625" style="1"/>
-    <col min="3585" max="3585" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3587" max="3840" width="9.140625" style="1"/>
-    <col min="3841" max="3841" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3843" max="4096" width="9.140625" style="1"/>
-    <col min="4097" max="4097" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4099" max="4352" width="9.140625" style="1"/>
-    <col min="4353" max="4353" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4355" max="4608" width="9.140625" style="1"/>
-    <col min="4609" max="4609" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4611" max="4864" width="9.140625" style="1"/>
-    <col min="4865" max="4865" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4867" max="5120" width="9.140625" style="1"/>
-    <col min="5121" max="5121" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5123" max="5376" width="9.140625" style="1"/>
-    <col min="5377" max="5377" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5379" max="5632" width="9.140625" style="1"/>
-    <col min="5633" max="5633" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5635" max="5888" width="9.140625" style="1"/>
-    <col min="5889" max="5889" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5891" max="6144" width="9.140625" style="1"/>
-    <col min="6145" max="6145" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6147" max="6400" width="9.140625" style="1"/>
-    <col min="6401" max="6401" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6403" max="6656" width="9.140625" style="1"/>
-    <col min="6657" max="6657" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6659" max="6912" width="9.140625" style="1"/>
-    <col min="6913" max="6913" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6915" max="7168" width="9.140625" style="1"/>
-    <col min="7169" max="7169" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7171" max="7424" width="9.140625" style="1"/>
-    <col min="7425" max="7425" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7427" max="7680" width="9.140625" style="1"/>
-    <col min="7681" max="7681" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7683" max="7936" width="9.140625" style="1"/>
-    <col min="7937" max="7937" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7939" max="8192" width="9.140625" style="1"/>
-    <col min="8193" max="8193" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8195" max="8448" width="9.140625" style="1"/>
-    <col min="8449" max="8449" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8451" max="8704" width="9.140625" style="1"/>
-    <col min="8705" max="8705" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8707" max="8960" width="9.140625" style="1"/>
-    <col min="8961" max="8961" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8963" max="9216" width="9.140625" style="1"/>
-    <col min="9217" max="9217" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9219" max="9472" width="9.140625" style="1"/>
-    <col min="9473" max="9473" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9475" max="9728" width="9.140625" style="1"/>
-    <col min="9729" max="9729" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9731" max="9984" width="9.140625" style="1"/>
-    <col min="9985" max="9985" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9987" max="10240" width="9.140625" style="1"/>
-    <col min="10241" max="10241" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10243" max="10496" width="9.140625" style="1"/>
-    <col min="10497" max="10497" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10499" max="10752" width="9.140625" style="1"/>
-    <col min="10753" max="10753" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10755" max="11008" width="9.140625" style="1"/>
-    <col min="11009" max="11009" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11011" max="11264" width="9.140625" style="1"/>
-    <col min="11265" max="11265" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11267" max="11520" width="9.140625" style="1"/>
-    <col min="11521" max="11521" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11523" max="11776" width="9.140625" style="1"/>
-    <col min="11777" max="11777" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11779" max="12032" width="9.140625" style="1"/>
-    <col min="12033" max="12033" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12035" max="12288" width="9.140625" style="1"/>
-    <col min="12289" max="12289" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12291" max="12544" width="9.140625" style="1"/>
-    <col min="12545" max="12545" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12547" max="12800" width="9.140625" style="1"/>
-    <col min="12801" max="12801" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12803" max="13056" width="9.140625" style="1"/>
-    <col min="13057" max="13057" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13059" max="13312" width="9.140625" style="1"/>
-    <col min="13313" max="13313" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13315" max="13568" width="9.140625" style="1"/>
-    <col min="13569" max="13569" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13571" max="13824" width="9.140625" style="1"/>
-    <col min="13825" max="13825" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13827" max="14080" width="9.140625" style="1"/>
-    <col min="14081" max="14081" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14083" max="14336" width="9.140625" style="1"/>
-    <col min="14337" max="14337" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14339" max="14592" width="9.140625" style="1"/>
-    <col min="14593" max="14593" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14595" max="14848" width="9.140625" style="1"/>
-    <col min="14849" max="14849" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14851" max="15104" width="9.140625" style="1"/>
-    <col min="15105" max="15105" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15107" max="15360" width="9.140625" style="1"/>
-    <col min="15361" max="15361" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15363" max="15616" width="9.140625" style="1"/>
-    <col min="15617" max="15617" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15619" max="15872" width="9.140625" style="1"/>
-    <col min="15873" max="15873" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15875" max="16128" width="9.140625" style="1"/>
-    <col min="16129" max="16129" width="20.28515625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.7109375" style="1" customWidth="1"/>
-    <col min="16131" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="9.1640625" style="1"/>
+    <col min="257" max="257" width="20.33203125" style="1" customWidth="1"/>
+    <col min="258" max="258" width="10.6640625" style="1" customWidth="1"/>
+    <col min="259" max="512" width="9.1640625" style="1"/>
+    <col min="513" max="513" width="20.33203125" style="1" customWidth="1"/>
+    <col min="514" max="514" width="10.6640625" style="1" customWidth="1"/>
+    <col min="515" max="768" width="9.1640625" style="1"/>
+    <col min="769" max="769" width="20.33203125" style="1" customWidth="1"/>
+    <col min="770" max="770" width="10.6640625" style="1" customWidth="1"/>
+    <col min="771" max="1024" width="9.1640625" style="1"/>
+    <col min="1025" max="1025" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1027" max="1280" width="9.1640625" style="1"/>
+    <col min="1281" max="1281" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1283" max="1536" width="9.1640625" style="1"/>
+    <col min="1537" max="1537" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1539" max="1792" width="9.1640625" style="1"/>
+    <col min="1793" max="1793" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1795" max="2048" width="9.1640625" style="1"/>
+    <col min="2049" max="2049" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2051" max="2304" width="9.1640625" style="1"/>
+    <col min="2305" max="2305" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2307" max="2560" width="9.1640625" style="1"/>
+    <col min="2561" max="2561" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2563" max="2816" width="9.1640625" style="1"/>
+    <col min="2817" max="2817" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2819" max="3072" width="9.1640625" style="1"/>
+    <col min="3073" max="3073" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3075" max="3328" width="9.1640625" style="1"/>
+    <col min="3329" max="3329" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3331" max="3584" width="9.1640625" style="1"/>
+    <col min="3585" max="3585" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3587" max="3840" width="9.1640625" style="1"/>
+    <col min="3841" max="3841" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3843" max="4096" width="9.1640625" style="1"/>
+    <col min="4097" max="4097" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4099" max="4352" width="9.1640625" style="1"/>
+    <col min="4353" max="4353" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4355" max="4608" width="9.1640625" style="1"/>
+    <col min="4609" max="4609" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4611" max="4864" width="9.1640625" style="1"/>
+    <col min="4865" max="4865" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4867" max="5120" width="9.1640625" style="1"/>
+    <col min="5121" max="5121" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5123" max="5376" width="9.1640625" style="1"/>
+    <col min="5377" max="5377" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5379" max="5632" width="9.1640625" style="1"/>
+    <col min="5633" max="5633" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5635" max="5888" width="9.1640625" style="1"/>
+    <col min="5889" max="5889" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5891" max="6144" width="9.1640625" style="1"/>
+    <col min="6145" max="6145" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6147" max="6400" width="9.1640625" style="1"/>
+    <col min="6401" max="6401" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6403" max="6656" width="9.1640625" style="1"/>
+    <col min="6657" max="6657" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6659" max="6912" width="9.1640625" style="1"/>
+    <col min="6913" max="6913" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6915" max="7168" width="9.1640625" style="1"/>
+    <col min="7169" max="7169" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7171" max="7424" width="9.1640625" style="1"/>
+    <col min="7425" max="7425" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7427" max="7680" width="9.1640625" style="1"/>
+    <col min="7681" max="7681" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7683" max="7936" width="9.1640625" style="1"/>
+    <col min="7937" max="7937" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7939" max="8192" width="9.1640625" style="1"/>
+    <col min="8193" max="8193" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8195" max="8448" width="9.1640625" style="1"/>
+    <col min="8449" max="8449" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8451" max="8704" width="9.1640625" style="1"/>
+    <col min="8705" max="8705" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8707" max="8960" width="9.1640625" style="1"/>
+    <col min="8961" max="8961" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8963" max="9216" width="9.1640625" style="1"/>
+    <col min="9217" max="9217" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9219" max="9472" width="9.1640625" style="1"/>
+    <col min="9473" max="9473" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9475" max="9728" width="9.1640625" style="1"/>
+    <col min="9729" max="9729" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9731" max="9984" width="9.1640625" style="1"/>
+    <col min="9985" max="9985" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9987" max="10240" width="9.1640625" style="1"/>
+    <col min="10241" max="10241" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10243" max="10496" width="9.1640625" style="1"/>
+    <col min="10497" max="10497" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10499" max="10752" width="9.1640625" style="1"/>
+    <col min="10753" max="10753" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10755" max="11008" width="9.1640625" style="1"/>
+    <col min="11009" max="11009" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11011" max="11264" width="9.1640625" style="1"/>
+    <col min="11265" max="11265" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11267" max="11520" width="9.1640625" style="1"/>
+    <col min="11521" max="11521" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11523" max="11776" width="9.1640625" style="1"/>
+    <col min="11777" max="11777" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11779" max="12032" width="9.1640625" style="1"/>
+    <col min="12033" max="12033" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12035" max="12288" width="9.1640625" style="1"/>
+    <col min="12289" max="12289" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12291" max="12544" width="9.1640625" style="1"/>
+    <col min="12545" max="12545" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12547" max="12800" width="9.1640625" style="1"/>
+    <col min="12801" max="12801" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12803" max="13056" width="9.1640625" style="1"/>
+    <col min="13057" max="13057" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13059" max="13312" width="9.1640625" style="1"/>
+    <col min="13313" max="13313" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13315" max="13568" width="9.1640625" style="1"/>
+    <col min="13569" max="13569" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13571" max="13824" width="9.1640625" style="1"/>
+    <col min="13825" max="13825" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13827" max="14080" width="9.1640625" style="1"/>
+    <col min="14081" max="14081" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14083" max="14336" width="9.1640625" style="1"/>
+    <col min="14337" max="14337" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14339" max="14592" width="9.1640625" style="1"/>
+    <col min="14593" max="14593" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14595" max="14848" width="9.1640625" style="1"/>
+    <col min="14849" max="14849" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14851" max="15104" width="9.1640625" style="1"/>
+    <col min="15105" max="15105" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15107" max="15360" width="9.1640625" style="1"/>
+    <col min="15361" max="15361" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15363" max="15616" width="9.1640625" style="1"/>
+    <col min="15617" max="15617" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15619" max="15872" width="9.1640625" style="1"/>
+    <col min="15873" max="15873" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15875" max="16128" width="9.1640625" style="1"/>
+    <col min="16129" max="16129" width="20.33203125" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16131" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3142,7 +3146,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>339</v>
       </c>
@@ -3150,115 +3154,115 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="12" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3278,26 +3282,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13" style="17" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3337,13 +3341,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>11616</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>11621</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>11626</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>11636</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>11641</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>11646</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>11656</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>11661</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>11666</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11676</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>11681</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>11686</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>11691</v>
       </c>
@@ -3642,7 +3646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>11696</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>11701</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>11706</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>11711</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>11716</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>11721</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>11726</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>11731</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>11736</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>11741</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>11746</v>
       </c>
@@ -3895,7 +3899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>11751</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>11756</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>11761</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>11766</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>11771</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>11776</v>
       </c>
@@ -4033,7 +4037,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>11781</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>11786</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>11791</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>11796</v>
       </c>
@@ -4125,7 +4129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>11801</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>11806</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>11811</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>11816</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>11821</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>11826</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>11831</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>11836</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>11841</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>11846</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>11851</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>11856</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>11861</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>11866</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>11871</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>11876</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>11881</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>11886</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>11891</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>11896</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>15262</v>
       </c>
@@ -4608,7 +4612,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>15263</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>15261</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>11942</v>
       </c>
@@ -4677,7 +4681,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>11943</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>11941</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>11947</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>11948</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>11946</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>11952</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>11953</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>11951</v>
       </c>
@@ -4861,7 +4865,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>11954</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>11955</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>15272</v>
       </c>
@@ -4930,7 +4934,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>15273</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>15271</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>11957</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>11958</v>
       </c>
@@ -5022,7 +5026,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>11956</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>11962</v>
       </c>
@@ -5068,7 +5072,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>11963</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>11961</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>11967</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>11968</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>11966</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>11969</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>11970</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>15282</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>15283</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <v>15281</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>11972</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>11973</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>11971</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>11977</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>11978</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <v>11976</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>11982</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <v>11983</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>11981</v>
       </c>
@@ -5505,7 +5509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <v>15298</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="15">
         <v>15299</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <v>11985</v>
       </c>
@@ -5574,7 +5578,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <v>11986</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <v>11991</v>
       </c>
@@ -5620,7 +5624,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
         <v>11996</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
         <v>12000</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>12001</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>12006</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <v>12011</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="15">
         <v>12015</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="15">
         <v>12016</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="15">
         <v>12021</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
         <v>12026</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="15">
         <v>12030</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <v>12031</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="15">
         <v>12036</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="15">
         <v>12041</v>
       </c>
@@ -5919,7 +5923,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="15">
         <v>12045</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>12046</v>
       </c>
@@ -5965,7 +5969,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="15">
         <v>12051</v>
       </c>
@@ -5988,7 +5992,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="15">
         <v>12056</v>
       </c>
@@ -6011,7 +6015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="15">
         <v>12060</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <v>12061</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="15">
         <v>12066</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="15">
         <v>12071</v>
       </c>
@@ -6103,7 +6107,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6111,7 +6115,7 @@
       <c r="E123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6119,7 +6123,7 @@
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6127,7 +6131,7 @@
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6135,7 +6139,7 @@
       <c r="E126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6144,7 +6148,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6153,7 +6157,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6162,7 +6166,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6171,7 +6175,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6180,7 +6184,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6189,7 +6193,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6197,7 +6201,7 @@
       <c r="E133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6206,7 +6210,7 @@
       <c r="F134" s="18"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6215,7 +6219,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6224,7 +6228,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6233,7 +6237,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6249,7 +6253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6257,204 +6261,204 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="11.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="11" customWidth="1"/>
-    <col min="4" max="257" width="9.140625" style="12"/>
-    <col min="258" max="258" width="11.140625" style="12" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="12" customWidth="1"/>
-    <col min="260" max="513" width="9.140625" style="12"/>
-    <col min="514" max="514" width="11.140625" style="12" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="12" customWidth="1"/>
-    <col min="516" max="769" width="9.140625" style="12"/>
-    <col min="770" max="770" width="11.140625" style="12" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="12" customWidth="1"/>
-    <col min="772" max="1025" width="9.140625" style="12"/>
-    <col min="1026" max="1026" width="11.140625" style="12" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="12" customWidth="1"/>
-    <col min="1028" max="1281" width="9.140625" style="12"/>
-    <col min="1282" max="1282" width="11.140625" style="12" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="12" customWidth="1"/>
-    <col min="1284" max="1537" width="9.140625" style="12"/>
-    <col min="1538" max="1538" width="11.140625" style="12" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="12" customWidth="1"/>
-    <col min="1540" max="1793" width="9.140625" style="12"/>
-    <col min="1794" max="1794" width="11.140625" style="12" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="12" customWidth="1"/>
-    <col min="1796" max="2049" width="9.140625" style="12"/>
-    <col min="2050" max="2050" width="11.140625" style="12" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="12" customWidth="1"/>
-    <col min="2052" max="2305" width="9.140625" style="12"/>
-    <col min="2306" max="2306" width="11.140625" style="12" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="12" customWidth="1"/>
-    <col min="2308" max="2561" width="9.140625" style="12"/>
-    <col min="2562" max="2562" width="11.140625" style="12" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="12" customWidth="1"/>
-    <col min="2564" max="2817" width="9.140625" style="12"/>
-    <col min="2818" max="2818" width="11.140625" style="12" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="12" customWidth="1"/>
-    <col min="2820" max="3073" width="9.140625" style="12"/>
-    <col min="3074" max="3074" width="11.140625" style="12" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="12" customWidth="1"/>
-    <col min="3076" max="3329" width="9.140625" style="12"/>
-    <col min="3330" max="3330" width="11.140625" style="12" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="12" customWidth="1"/>
-    <col min="3332" max="3585" width="9.140625" style="12"/>
-    <col min="3586" max="3586" width="11.140625" style="12" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="12" customWidth="1"/>
-    <col min="3588" max="3841" width="9.140625" style="12"/>
-    <col min="3842" max="3842" width="11.140625" style="12" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="12" customWidth="1"/>
-    <col min="3844" max="4097" width="9.140625" style="12"/>
-    <col min="4098" max="4098" width="11.140625" style="12" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="12" customWidth="1"/>
-    <col min="4100" max="4353" width="9.140625" style="12"/>
-    <col min="4354" max="4354" width="11.140625" style="12" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="12" customWidth="1"/>
-    <col min="4356" max="4609" width="9.140625" style="12"/>
-    <col min="4610" max="4610" width="11.140625" style="12" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="12" customWidth="1"/>
-    <col min="4612" max="4865" width="9.140625" style="12"/>
-    <col min="4866" max="4866" width="11.140625" style="12" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="12" customWidth="1"/>
-    <col min="4868" max="5121" width="9.140625" style="12"/>
-    <col min="5122" max="5122" width="11.140625" style="12" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="12" customWidth="1"/>
-    <col min="5124" max="5377" width="9.140625" style="12"/>
-    <col min="5378" max="5378" width="11.140625" style="12" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="12" customWidth="1"/>
-    <col min="5380" max="5633" width="9.140625" style="12"/>
-    <col min="5634" max="5634" width="11.140625" style="12" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="12" customWidth="1"/>
-    <col min="5636" max="5889" width="9.140625" style="12"/>
-    <col min="5890" max="5890" width="11.140625" style="12" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="12" customWidth="1"/>
-    <col min="5892" max="6145" width="9.140625" style="12"/>
-    <col min="6146" max="6146" width="11.140625" style="12" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="12" customWidth="1"/>
-    <col min="6148" max="6401" width="9.140625" style="12"/>
-    <col min="6402" max="6402" width="11.140625" style="12" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="12" customWidth="1"/>
-    <col min="6404" max="6657" width="9.140625" style="12"/>
-    <col min="6658" max="6658" width="11.140625" style="12" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="12" customWidth="1"/>
-    <col min="6660" max="6913" width="9.140625" style="12"/>
-    <col min="6914" max="6914" width="11.140625" style="12" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="12" customWidth="1"/>
-    <col min="6916" max="7169" width="9.140625" style="12"/>
-    <col min="7170" max="7170" width="11.140625" style="12" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="12" customWidth="1"/>
-    <col min="7172" max="7425" width="9.140625" style="12"/>
-    <col min="7426" max="7426" width="11.140625" style="12" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="12" customWidth="1"/>
-    <col min="7428" max="7681" width="9.140625" style="12"/>
-    <col min="7682" max="7682" width="11.140625" style="12" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="12" customWidth="1"/>
-    <col min="7684" max="7937" width="9.140625" style="12"/>
-    <col min="7938" max="7938" width="11.140625" style="12" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="12" customWidth="1"/>
-    <col min="7940" max="8193" width="9.140625" style="12"/>
-    <col min="8194" max="8194" width="11.140625" style="12" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="12" customWidth="1"/>
-    <col min="8196" max="8449" width="9.140625" style="12"/>
-    <col min="8450" max="8450" width="11.140625" style="12" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="12" customWidth="1"/>
-    <col min="8452" max="8705" width="9.140625" style="12"/>
-    <col min="8706" max="8706" width="11.140625" style="12" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="12" customWidth="1"/>
-    <col min="8708" max="8961" width="9.140625" style="12"/>
-    <col min="8962" max="8962" width="11.140625" style="12" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="12" customWidth="1"/>
-    <col min="8964" max="9217" width="9.140625" style="12"/>
-    <col min="9218" max="9218" width="11.140625" style="12" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="12" customWidth="1"/>
-    <col min="9220" max="9473" width="9.140625" style="12"/>
-    <col min="9474" max="9474" width="11.140625" style="12" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="12" customWidth="1"/>
-    <col min="9476" max="9729" width="9.140625" style="12"/>
-    <col min="9730" max="9730" width="11.140625" style="12" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="12" customWidth="1"/>
-    <col min="9732" max="9985" width="9.140625" style="12"/>
-    <col min="9986" max="9986" width="11.140625" style="12" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="12" customWidth="1"/>
-    <col min="9988" max="10241" width="9.140625" style="12"/>
-    <col min="10242" max="10242" width="11.140625" style="12" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="12" customWidth="1"/>
-    <col min="10244" max="10497" width="9.140625" style="12"/>
-    <col min="10498" max="10498" width="11.140625" style="12" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="12" customWidth="1"/>
-    <col min="10500" max="10753" width="9.140625" style="12"/>
-    <col min="10754" max="10754" width="11.140625" style="12" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="12" customWidth="1"/>
-    <col min="10756" max="11009" width="9.140625" style="12"/>
-    <col min="11010" max="11010" width="11.140625" style="12" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="12" customWidth="1"/>
-    <col min="11012" max="11265" width="9.140625" style="12"/>
-    <col min="11266" max="11266" width="11.140625" style="12" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="12" customWidth="1"/>
-    <col min="11268" max="11521" width="9.140625" style="12"/>
-    <col min="11522" max="11522" width="11.140625" style="12" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="12" customWidth="1"/>
-    <col min="11524" max="11777" width="9.140625" style="12"/>
-    <col min="11778" max="11778" width="11.140625" style="12" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="12" customWidth="1"/>
-    <col min="11780" max="12033" width="9.140625" style="12"/>
-    <col min="12034" max="12034" width="11.140625" style="12" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="12" customWidth="1"/>
-    <col min="12036" max="12289" width="9.140625" style="12"/>
-    <col min="12290" max="12290" width="11.140625" style="12" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="12" customWidth="1"/>
-    <col min="12292" max="12545" width="9.140625" style="12"/>
-    <col min="12546" max="12546" width="11.140625" style="12" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="12" customWidth="1"/>
-    <col min="12548" max="12801" width="9.140625" style="12"/>
-    <col min="12802" max="12802" width="11.140625" style="12" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="12" customWidth="1"/>
-    <col min="12804" max="13057" width="9.140625" style="12"/>
-    <col min="13058" max="13058" width="11.140625" style="12" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="12" customWidth="1"/>
-    <col min="13060" max="13313" width="9.140625" style="12"/>
-    <col min="13314" max="13314" width="11.140625" style="12" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="12" customWidth="1"/>
-    <col min="13316" max="13569" width="9.140625" style="12"/>
-    <col min="13570" max="13570" width="11.140625" style="12" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="12" customWidth="1"/>
-    <col min="13572" max="13825" width="9.140625" style="12"/>
-    <col min="13826" max="13826" width="11.140625" style="12" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="12" customWidth="1"/>
-    <col min="13828" max="14081" width="9.140625" style="12"/>
-    <col min="14082" max="14082" width="11.140625" style="12" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="12" customWidth="1"/>
-    <col min="14084" max="14337" width="9.140625" style="12"/>
-    <col min="14338" max="14338" width="11.140625" style="12" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="12" customWidth="1"/>
-    <col min="14340" max="14593" width="9.140625" style="12"/>
-    <col min="14594" max="14594" width="11.140625" style="12" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="12" customWidth="1"/>
-    <col min="14596" max="14849" width="9.140625" style="12"/>
-    <col min="14850" max="14850" width="11.140625" style="12" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="12" customWidth="1"/>
-    <col min="14852" max="15105" width="9.140625" style="12"/>
-    <col min="15106" max="15106" width="11.140625" style="12" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="12" customWidth="1"/>
-    <col min="15108" max="15361" width="9.140625" style="12"/>
-    <col min="15362" max="15362" width="11.140625" style="12" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="12" customWidth="1"/>
-    <col min="15364" max="15617" width="9.140625" style="12"/>
-    <col min="15618" max="15618" width="11.140625" style="12" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="12" customWidth="1"/>
-    <col min="15620" max="15873" width="9.140625" style="12"/>
-    <col min="15874" max="15874" width="11.140625" style="12" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="12" customWidth="1"/>
-    <col min="15876" max="16129" width="9.140625" style="12"/>
-    <col min="16130" max="16130" width="11.140625" style="12" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="12" customWidth="1"/>
-    <col min="16132" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.1640625" style="11"/>
+    <col min="2" max="2" width="11.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="144.83203125" style="11" customWidth="1"/>
+    <col min="4" max="257" width="9.1640625" style="12"/>
+    <col min="258" max="258" width="11.1640625" style="12" customWidth="1"/>
+    <col min="259" max="259" width="144.83203125" style="12" customWidth="1"/>
+    <col min="260" max="513" width="9.1640625" style="12"/>
+    <col min="514" max="514" width="11.1640625" style="12" customWidth="1"/>
+    <col min="515" max="515" width="144.83203125" style="12" customWidth="1"/>
+    <col min="516" max="769" width="9.1640625" style="12"/>
+    <col min="770" max="770" width="11.1640625" style="12" customWidth="1"/>
+    <col min="771" max="771" width="144.83203125" style="12" customWidth="1"/>
+    <col min="772" max="1025" width="9.1640625" style="12"/>
+    <col min="1026" max="1026" width="11.1640625" style="12" customWidth="1"/>
+    <col min="1027" max="1027" width="144.83203125" style="12" customWidth="1"/>
+    <col min="1028" max="1281" width="9.1640625" style="12"/>
+    <col min="1282" max="1282" width="11.1640625" style="12" customWidth="1"/>
+    <col min="1283" max="1283" width="144.83203125" style="12" customWidth="1"/>
+    <col min="1284" max="1537" width="9.1640625" style="12"/>
+    <col min="1538" max="1538" width="11.1640625" style="12" customWidth="1"/>
+    <col min="1539" max="1539" width="144.83203125" style="12" customWidth="1"/>
+    <col min="1540" max="1793" width="9.1640625" style="12"/>
+    <col min="1794" max="1794" width="11.1640625" style="12" customWidth="1"/>
+    <col min="1795" max="1795" width="144.83203125" style="12" customWidth="1"/>
+    <col min="1796" max="2049" width="9.1640625" style="12"/>
+    <col min="2050" max="2050" width="11.1640625" style="12" customWidth="1"/>
+    <col min="2051" max="2051" width="144.83203125" style="12" customWidth="1"/>
+    <col min="2052" max="2305" width="9.1640625" style="12"/>
+    <col min="2306" max="2306" width="11.1640625" style="12" customWidth="1"/>
+    <col min="2307" max="2307" width="144.83203125" style="12" customWidth="1"/>
+    <col min="2308" max="2561" width="9.1640625" style="12"/>
+    <col min="2562" max="2562" width="11.1640625" style="12" customWidth="1"/>
+    <col min="2563" max="2563" width="144.83203125" style="12" customWidth="1"/>
+    <col min="2564" max="2817" width="9.1640625" style="12"/>
+    <col min="2818" max="2818" width="11.1640625" style="12" customWidth="1"/>
+    <col min="2819" max="2819" width="144.83203125" style="12" customWidth="1"/>
+    <col min="2820" max="3073" width="9.1640625" style="12"/>
+    <col min="3074" max="3074" width="11.1640625" style="12" customWidth="1"/>
+    <col min="3075" max="3075" width="144.83203125" style="12" customWidth="1"/>
+    <col min="3076" max="3329" width="9.1640625" style="12"/>
+    <col min="3330" max="3330" width="11.1640625" style="12" customWidth="1"/>
+    <col min="3331" max="3331" width="144.83203125" style="12" customWidth="1"/>
+    <col min="3332" max="3585" width="9.1640625" style="12"/>
+    <col min="3586" max="3586" width="11.1640625" style="12" customWidth="1"/>
+    <col min="3587" max="3587" width="144.83203125" style="12" customWidth="1"/>
+    <col min="3588" max="3841" width="9.1640625" style="12"/>
+    <col min="3842" max="3842" width="11.1640625" style="12" customWidth="1"/>
+    <col min="3843" max="3843" width="144.83203125" style="12" customWidth="1"/>
+    <col min="3844" max="4097" width="9.1640625" style="12"/>
+    <col min="4098" max="4098" width="11.1640625" style="12" customWidth="1"/>
+    <col min="4099" max="4099" width="144.83203125" style="12" customWidth="1"/>
+    <col min="4100" max="4353" width="9.1640625" style="12"/>
+    <col min="4354" max="4354" width="11.1640625" style="12" customWidth="1"/>
+    <col min="4355" max="4355" width="144.83203125" style="12" customWidth="1"/>
+    <col min="4356" max="4609" width="9.1640625" style="12"/>
+    <col min="4610" max="4610" width="11.1640625" style="12" customWidth="1"/>
+    <col min="4611" max="4611" width="144.83203125" style="12" customWidth="1"/>
+    <col min="4612" max="4865" width="9.1640625" style="12"/>
+    <col min="4866" max="4866" width="11.1640625" style="12" customWidth="1"/>
+    <col min="4867" max="4867" width="144.83203125" style="12" customWidth="1"/>
+    <col min="4868" max="5121" width="9.1640625" style="12"/>
+    <col min="5122" max="5122" width="11.1640625" style="12" customWidth="1"/>
+    <col min="5123" max="5123" width="144.83203125" style="12" customWidth="1"/>
+    <col min="5124" max="5377" width="9.1640625" style="12"/>
+    <col min="5378" max="5378" width="11.1640625" style="12" customWidth="1"/>
+    <col min="5379" max="5379" width="144.83203125" style="12" customWidth="1"/>
+    <col min="5380" max="5633" width="9.1640625" style="12"/>
+    <col min="5634" max="5634" width="11.1640625" style="12" customWidth="1"/>
+    <col min="5635" max="5635" width="144.83203125" style="12" customWidth="1"/>
+    <col min="5636" max="5889" width="9.1640625" style="12"/>
+    <col min="5890" max="5890" width="11.1640625" style="12" customWidth="1"/>
+    <col min="5891" max="5891" width="144.83203125" style="12" customWidth="1"/>
+    <col min="5892" max="6145" width="9.1640625" style="12"/>
+    <col min="6146" max="6146" width="11.1640625" style="12" customWidth="1"/>
+    <col min="6147" max="6147" width="144.83203125" style="12" customWidth="1"/>
+    <col min="6148" max="6401" width="9.1640625" style="12"/>
+    <col min="6402" max="6402" width="11.1640625" style="12" customWidth="1"/>
+    <col min="6403" max="6403" width="144.83203125" style="12" customWidth="1"/>
+    <col min="6404" max="6657" width="9.1640625" style="12"/>
+    <col min="6658" max="6658" width="11.1640625" style="12" customWidth="1"/>
+    <col min="6659" max="6659" width="144.83203125" style="12" customWidth="1"/>
+    <col min="6660" max="6913" width="9.1640625" style="12"/>
+    <col min="6914" max="6914" width="11.1640625" style="12" customWidth="1"/>
+    <col min="6915" max="6915" width="144.83203125" style="12" customWidth="1"/>
+    <col min="6916" max="7169" width="9.1640625" style="12"/>
+    <col min="7170" max="7170" width="11.1640625" style="12" customWidth="1"/>
+    <col min="7171" max="7171" width="144.83203125" style="12" customWidth="1"/>
+    <col min="7172" max="7425" width="9.1640625" style="12"/>
+    <col min="7426" max="7426" width="11.1640625" style="12" customWidth="1"/>
+    <col min="7427" max="7427" width="144.83203125" style="12" customWidth="1"/>
+    <col min="7428" max="7681" width="9.1640625" style="12"/>
+    <col min="7682" max="7682" width="11.1640625" style="12" customWidth="1"/>
+    <col min="7683" max="7683" width="144.83203125" style="12" customWidth="1"/>
+    <col min="7684" max="7937" width="9.1640625" style="12"/>
+    <col min="7938" max="7938" width="11.1640625" style="12" customWidth="1"/>
+    <col min="7939" max="7939" width="144.83203125" style="12" customWidth="1"/>
+    <col min="7940" max="8193" width="9.1640625" style="12"/>
+    <col min="8194" max="8194" width="11.1640625" style="12" customWidth="1"/>
+    <col min="8195" max="8195" width="144.83203125" style="12" customWidth="1"/>
+    <col min="8196" max="8449" width="9.1640625" style="12"/>
+    <col min="8450" max="8450" width="11.1640625" style="12" customWidth="1"/>
+    <col min="8451" max="8451" width="144.83203125" style="12" customWidth="1"/>
+    <col min="8452" max="8705" width="9.1640625" style="12"/>
+    <col min="8706" max="8706" width="11.1640625" style="12" customWidth="1"/>
+    <col min="8707" max="8707" width="144.83203125" style="12" customWidth="1"/>
+    <col min="8708" max="8961" width="9.1640625" style="12"/>
+    <col min="8962" max="8962" width="11.1640625" style="12" customWidth="1"/>
+    <col min="8963" max="8963" width="144.83203125" style="12" customWidth="1"/>
+    <col min="8964" max="9217" width="9.1640625" style="12"/>
+    <col min="9218" max="9218" width="11.1640625" style="12" customWidth="1"/>
+    <col min="9219" max="9219" width="144.83203125" style="12" customWidth="1"/>
+    <col min="9220" max="9473" width="9.1640625" style="12"/>
+    <col min="9474" max="9474" width="11.1640625" style="12" customWidth="1"/>
+    <col min="9475" max="9475" width="144.83203125" style="12" customWidth="1"/>
+    <col min="9476" max="9729" width="9.1640625" style="12"/>
+    <col min="9730" max="9730" width="11.1640625" style="12" customWidth="1"/>
+    <col min="9731" max="9731" width="144.83203125" style="12" customWidth="1"/>
+    <col min="9732" max="9985" width="9.1640625" style="12"/>
+    <col min="9986" max="9986" width="11.1640625" style="12" customWidth="1"/>
+    <col min="9987" max="9987" width="144.83203125" style="12" customWidth="1"/>
+    <col min="9988" max="10241" width="9.1640625" style="12"/>
+    <col min="10242" max="10242" width="11.1640625" style="12" customWidth="1"/>
+    <col min="10243" max="10243" width="144.83203125" style="12" customWidth="1"/>
+    <col min="10244" max="10497" width="9.1640625" style="12"/>
+    <col min="10498" max="10498" width="11.1640625" style="12" customWidth="1"/>
+    <col min="10499" max="10499" width="144.83203125" style="12" customWidth="1"/>
+    <col min="10500" max="10753" width="9.1640625" style="12"/>
+    <col min="10754" max="10754" width="11.1640625" style="12" customWidth="1"/>
+    <col min="10755" max="10755" width="144.83203125" style="12" customWidth="1"/>
+    <col min="10756" max="11009" width="9.1640625" style="12"/>
+    <col min="11010" max="11010" width="11.1640625" style="12" customWidth="1"/>
+    <col min="11011" max="11011" width="144.83203125" style="12" customWidth="1"/>
+    <col min="11012" max="11265" width="9.1640625" style="12"/>
+    <col min="11266" max="11266" width="11.1640625" style="12" customWidth="1"/>
+    <col min="11267" max="11267" width="144.83203125" style="12" customWidth="1"/>
+    <col min="11268" max="11521" width="9.1640625" style="12"/>
+    <col min="11522" max="11522" width="11.1640625" style="12" customWidth="1"/>
+    <col min="11523" max="11523" width="144.83203125" style="12" customWidth="1"/>
+    <col min="11524" max="11777" width="9.1640625" style="12"/>
+    <col min="11778" max="11778" width="11.1640625" style="12" customWidth="1"/>
+    <col min="11779" max="11779" width="144.83203125" style="12" customWidth="1"/>
+    <col min="11780" max="12033" width="9.1640625" style="12"/>
+    <col min="12034" max="12034" width="11.1640625" style="12" customWidth="1"/>
+    <col min="12035" max="12035" width="144.83203125" style="12" customWidth="1"/>
+    <col min="12036" max="12289" width="9.1640625" style="12"/>
+    <col min="12290" max="12290" width="11.1640625" style="12" customWidth="1"/>
+    <col min="12291" max="12291" width="144.83203125" style="12" customWidth="1"/>
+    <col min="12292" max="12545" width="9.1640625" style="12"/>
+    <col min="12546" max="12546" width="11.1640625" style="12" customWidth="1"/>
+    <col min="12547" max="12547" width="144.83203125" style="12" customWidth="1"/>
+    <col min="12548" max="12801" width="9.1640625" style="12"/>
+    <col min="12802" max="12802" width="11.1640625" style="12" customWidth="1"/>
+    <col min="12803" max="12803" width="144.83203125" style="12" customWidth="1"/>
+    <col min="12804" max="13057" width="9.1640625" style="12"/>
+    <col min="13058" max="13058" width="11.1640625" style="12" customWidth="1"/>
+    <col min="13059" max="13059" width="144.83203125" style="12" customWidth="1"/>
+    <col min="13060" max="13313" width="9.1640625" style="12"/>
+    <col min="13314" max="13314" width="11.1640625" style="12" customWidth="1"/>
+    <col min="13315" max="13315" width="144.83203125" style="12" customWidth="1"/>
+    <col min="13316" max="13569" width="9.1640625" style="12"/>
+    <col min="13570" max="13570" width="11.1640625" style="12" customWidth="1"/>
+    <col min="13571" max="13571" width="144.83203125" style="12" customWidth="1"/>
+    <col min="13572" max="13825" width="9.1640625" style="12"/>
+    <col min="13826" max="13826" width="11.1640625" style="12" customWidth="1"/>
+    <col min="13827" max="13827" width="144.83203125" style="12" customWidth="1"/>
+    <col min="13828" max="14081" width="9.1640625" style="12"/>
+    <col min="14082" max="14082" width="11.1640625" style="12" customWidth="1"/>
+    <col min="14083" max="14083" width="144.83203125" style="12" customWidth="1"/>
+    <col min="14084" max="14337" width="9.1640625" style="12"/>
+    <col min="14338" max="14338" width="11.1640625" style="12" customWidth="1"/>
+    <col min="14339" max="14339" width="144.83203125" style="12" customWidth="1"/>
+    <col min="14340" max="14593" width="9.1640625" style="12"/>
+    <col min="14594" max="14594" width="11.1640625" style="12" customWidth="1"/>
+    <col min="14595" max="14595" width="144.83203125" style="12" customWidth="1"/>
+    <col min="14596" max="14849" width="9.1640625" style="12"/>
+    <col min="14850" max="14850" width="11.1640625" style="12" customWidth="1"/>
+    <col min="14851" max="14851" width="144.83203125" style="12" customWidth="1"/>
+    <col min="14852" max="15105" width="9.1640625" style="12"/>
+    <col min="15106" max="15106" width="11.1640625" style="12" customWidth="1"/>
+    <col min="15107" max="15107" width="144.83203125" style="12" customWidth="1"/>
+    <col min="15108" max="15361" width="9.1640625" style="12"/>
+    <col min="15362" max="15362" width="11.1640625" style="12" customWidth="1"/>
+    <col min="15363" max="15363" width="144.83203125" style="12" customWidth="1"/>
+    <col min="15364" max="15617" width="9.1640625" style="12"/>
+    <col min="15618" max="15618" width="11.1640625" style="12" customWidth="1"/>
+    <col min="15619" max="15619" width="144.83203125" style="12" customWidth="1"/>
+    <col min="15620" max="15873" width="9.1640625" style="12"/>
+    <col min="15874" max="15874" width="11.1640625" style="12" customWidth="1"/>
+    <col min="15875" max="15875" width="144.83203125" style="12" customWidth="1"/>
+    <col min="15876" max="16129" width="9.1640625" style="12"/>
+    <col min="16130" max="16130" width="11.1640625" style="12" customWidth="1"/>
+    <col min="16131" max="16131" width="144.83203125" style="12" customWidth="1"/>
+    <col min="16132" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>11616</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>11621</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>11626</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>11636</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>11641</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>11646</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>11656</v>
       </c>
@@ -6553,7 +6557,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>11661</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>11666</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>11676</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>11681</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>11686</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>11691</v>
       </c>
@@ -6619,7 +6623,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="120" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>11696</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>11701</v>
       </c>
@@ -6641,7 +6645,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>11706</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>11711</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>11716</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>11721</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>11726</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>11731</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>11736</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="192" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>11741</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>11746</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>11751</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>11756</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>11761</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>11766</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>11771</v>
       </c>
@@ -6795,7 +6799,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>11776</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>11781</v>
       </c>
@@ -6817,7 +6821,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>11786</v>
       </c>
@@ -6828,7 +6832,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>11791</v>
       </c>
@@ -6839,7 +6843,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>11796</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>11801</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>11806</v>
       </c>
@@ -6872,7 +6876,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>11811</v>
       </c>
@@ -6883,7 +6887,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
         <v>11816</v>
       </c>
@@ -6894,7 +6898,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
         <v>11821</v>
       </c>
@@ -6905,7 +6909,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
         <v>11826</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
         <v>11831</v>
       </c>
@@ -6927,7 +6931,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
         <v>11836</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
         <v>11841</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
         <v>11846</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A47" s="12">
         <v>11851</v>
       </c>
@@ -6971,7 +6975,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A48" s="12">
         <v>11856</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A49" s="12">
         <v>11861</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
         <v>11866</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A51" s="12">
         <v>11871</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A52" s="12">
         <v>11876</v>
       </c>
@@ -7026,7 +7030,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A53" s="12">
         <v>11881</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A54" s="12">
         <v>11886</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A55" s="12">
         <v>11891</v>
       </c>
@@ -7059,7 +7063,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A56" s="12">
         <v>11896</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A57" s="12">
         <v>15262</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A58" s="12">
         <v>15263</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A59" s="12">
         <v>15261</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A60" s="12">
         <v>11942</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A61" s="12">
         <v>11943</v>
       </c>
@@ -7125,7 +7129,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A62" s="12">
         <v>11941</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A63" s="12">
         <v>11947</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A64" s="12">
         <v>11948</v>
       </c>
@@ -7158,7 +7162,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
         <v>11946</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
         <v>11952</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
         <v>11953</v>
       </c>
@@ -7191,7 +7195,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A68" s="12">
         <v>11951</v>
       </c>
@@ -7202,7 +7206,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
         <v>11954</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
         <v>11955</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
         <v>15272</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A72" s="12">
         <v>15273</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
         <v>15271</v>
       </c>
@@ -7257,7 +7261,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
         <v>11957</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
         <v>11958</v>
       </c>
@@ -7279,7 +7283,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A76" s="12">
         <v>11956</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
         <v>11962</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
         <v>11963</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A79" s="12">
         <v>11961</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A80" s="12">
         <v>11967</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A81" s="12">
         <v>11968</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="180" x14ac:dyDescent="0.15">
       <c r="A82" s="12">
         <v>11966</v>
       </c>
@@ -7356,7 +7360,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
         <v>11969</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
         <v>11970</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
         <v>15282</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
         <v>15283</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
         <v>15281</v>
       </c>
@@ -7411,7 +7415,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
         <v>11972</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
         <v>11973</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
         <v>11971</v>
       </c>
@@ -7444,7 +7448,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
         <v>11977</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
         <v>11978</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
         <v>11976</v>
       </c>
@@ -7477,7 +7481,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
         <v>11982</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A95" s="12">
         <v>11983</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A96" s="12">
         <v>11981</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A97" s="12">
         <v>15298</v>
       </c>
@@ -7521,7 +7525,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A98" s="12">
         <v>15299</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A99" s="12">
         <v>11985</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A100" s="12">
         <v>11986</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A101" s="12">
         <v>11991</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A102" s="12">
         <v>11996</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A103" s="12">
         <v>12000</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A104" s="12">
         <v>12001</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A105" s="12">
         <v>12006</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A106" s="12">
         <v>12011</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A107" s="12">
         <v>12015</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A108" s="12">
         <v>12016</v>
       </c>
@@ -7642,7 +7646,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A109" s="12">
         <v>12021</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A110" s="12">
         <v>12026</v>
       </c>
@@ -7664,7 +7668,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A111" s="12">
         <v>12030</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A112" s="12">
         <v>12031</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A113" s="12">
         <v>12036</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A114" s="12">
         <v>12041</v>
       </c>
@@ -7708,7 +7712,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A115" s="12">
         <v>12045</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A116" s="12">
         <v>12046</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A117" s="12">
         <v>12051</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A118" s="12">
         <v>12056</v>
       </c>
@@ -7752,7 +7756,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A119" s="12">
         <v>12060</v>
       </c>
@@ -7763,7 +7767,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A120" s="12">
         <v>12061</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="156" x14ac:dyDescent="0.15">
       <c r="A121" s="12">
         <v>12066</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="144" x14ac:dyDescent="0.15">
       <c r="A122" s="12">
         <v>12071</v>
       </c>
@@ -7803,7 +7807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7811,21 +7815,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
     <col min="5" max="5" width="13" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="13" customWidth="1"/>
-    <col min="8" max="8" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="69.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7850,8 +7854,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
         <v>11616</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7876,8 +7880,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
         <v>11621</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7902,8 +7906,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>11626</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7928,8 +7932,8 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
         <v>11636</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7954,8 +7958,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
         <v>11641</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7980,8 +7984,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
         <v>11646</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8006,8 +8010,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
         <v>11656</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8032,8 +8036,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
         <v>11661</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8058,8 +8062,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
         <v>11666</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -8084,8 +8088,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
         <v>11676</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -8110,8 +8114,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
         <v>11681</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -8136,8 +8140,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
         <v>11686</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8162,8 +8166,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
         <v>11691</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -8188,8 +8192,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
         <v>11696</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -8214,8 +8218,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
         <v>11701</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -8240,8 +8244,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
         <v>11706</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8266,8 +8270,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
         <v>11711</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -8292,8 +8296,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
         <v>11716</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -8318,8 +8322,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
         <v>11721</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -8344,8 +8348,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
         <v>11726</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -8370,8 +8374,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
         <v>11731</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8396,8 +8400,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
         <v>11736</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -8422,8 +8426,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
         <v>11741</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -8448,8 +8452,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
         <v>11746</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -8474,8 +8478,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="19">
         <v>11751</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -8500,8 +8504,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
         <v>11756</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -8526,8 +8530,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
         <v>11761</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -8552,8 +8556,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
         <v>11766</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -8578,8 +8582,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
         <v>11771</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -8604,8 +8608,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
         <v>11776</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -8630,8 +8634,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="26">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
         <v>11781</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -8656,8 +8660,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="26">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
         <v>11786</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -8682,8 +8686,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="26">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="19">
         <v>11791</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -8708,8 +8712,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="26">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="19">
         <v>11796</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -8734,8 +8738,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="26">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="19">
         <v>11801</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -8760,8 +8764,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="26">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="19">
         <v>11806</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -8786,8 +8790,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="26">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="19">
         <v>11811</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -8812,8 +8816,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="26">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="19">
         <v>11816</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -8838,8 +8842,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="26">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="19">
         <v>11821</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8864,8 +8868,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="26">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="19">
         <v>11826</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -8890,8 +8894,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="26">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="19">
         <v>11831</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -8916,8 +8920,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="26">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="19">
         <v>11836</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -8942,8 +8946,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="26">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="19">
         <v>11841</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -8968,8 +8972,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="26">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="19">
         <v>11846</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -8994,8 +8998,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="26">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="19">
         <v>11851</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -9020,8 +9024,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="26">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="19">
         <v>11856</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -9046,8 +9050,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="26">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="19">
         <v>11861</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -9072,8 +9076,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="26">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="19">
         <v>11866</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -9098,8 +9102,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="26">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="19">
         <v>11871</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -9124,8 +9128,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="26">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="19">
         <v>11876</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9150,8 +9154,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="26">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="19">
         <v>11881</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -9176,8 +9180,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="26">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="19">
         <v>11886</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -9202,8 +9206,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="26">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="19">
         <v>11891</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -9228,8 +9232,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="26">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="19">
         <v>11896</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -9254,8 +9258,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="26">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="19">
         <v>15262</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -9280,8 +9284,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="26">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="19">
         <v>15263</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -9306,8 +9310,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="26">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="19">
         <v>15261</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -9332,8 +9336,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="26">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="19">
         <v>11942</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -9358,8 +9362,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="26">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="19">
         <v>11943</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -9384,8 +9388,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="26">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="19">
         <v>11941</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -9410,8 +9414,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="26">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="19">
         <v>11947</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -9436,8 +9440,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="26">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
         <v>11948</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -9462,8 +9466,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="26">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
         <v>11946</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -9488,8 +9492,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="26">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
         <v>11952</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -9514,8 +9518,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="26">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
         <v>11953</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -9540,8 +9544,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="26">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="19">
         <v>11951</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -9566,8 +9570,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="26">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
         <v>11954</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -9592,8 +9596,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="26">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
         <v>11955</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -9618,8 +9622,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="26">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="19">
         <v>15272</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -9644,8 +9648,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="26">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="19">
         <v>15273</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -9670,8 +9674,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="26">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="19">
         <v>15271</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -9696,8 +9700,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="26">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="19">
         <v>11957</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -9722,8 +9726,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="26">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="19">
         <v>11958</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -9748,8 +9752,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="26">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="19">
         <v>11956</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -9774,8 +9778,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="26">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="19">
         <v>11962</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -9800,8 +9804,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="26">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="19">
         <v>11963</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -9826,8 +9830,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="26">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="19">
         <v>11961</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -9852,8 +9856,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="26">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="19">
         <v>11967</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -9878,8 +9882,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="26">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="19">
         <v>11968</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -9904,8 +9908,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="26">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="19">
         <v>11966</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -9930,8 +9934,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="26">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="19">
         <v>11969</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -9956,8 +9960,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="26">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="19">
         <v>11970</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -9982,8 +9986,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="26">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="19">
         <v>15282</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -10008,8 +10012,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="26">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="19">
         <v>15283</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -10034,8 +10038,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="26">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="19">
         <v>15281</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -10060,8 +10064,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="26">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="19">
         <v>11972</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -10086,8 +10090,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="26">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="19">
         <v>11973</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -10112,8 +10116,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="26">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="19">
         <v>11971</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -10138,8 +10142,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="26">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="19">
         <v>11977</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -10164,8 +10168,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="26">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="19">
         <v>11978</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -10190,8 +10194,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="26">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="19">
         <v>11976</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -10216,8 +10220,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="26">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="19">
         <v>11982</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -10242,8 +10246,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="26">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="19">
         <v>11983</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -10268,8 +10272,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="26">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="19">
         <v>11981</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -10294,8 +10298,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="26">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="19">
         <v>15298</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -10320,8 +10324,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="26">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="19">
         <v>15299</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -10346,8 +10350,8 @@
         <v>462</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="26">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="19">
         <v>11985</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -10372,8 +10376,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="26">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="19">
         <v>11986</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -10398,8 +10402,8 @@
         <v>411</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="26">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="19">
         <v>11991</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -10424,8 +10428,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="26">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="19">
         <v>11996</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -10450,8 +10454,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="26">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="19">
         <v>12000</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -10476,8 +10480,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="26">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="19">
         <v>12001</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -10502,8 +10506,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="26">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="19">
         <v>12006</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -10528,8 +10532,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="26">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="19">
         <v>12011</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -10554,8 +10558,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="26">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="19">
         <v>12015</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -10580,8 +10584,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="26">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="19">
         <v>12016</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -10606,8 +10610,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="26">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="19">
         <v>12021</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -10632,8 +10636,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="26">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="19">
         <v>12026</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -10658,8 +10662,8 @@
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="26">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="19">
         <v>12030</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -10684,8 +10688,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="26">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="19">
         <v>12031</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -10710,8 +10714,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="26">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="19">
         <v>12036</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -10736,8 +10740,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="26">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="19">
         <v>12041</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -10762,8 +10766,8 @@
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="26">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="19">
         <v>12045</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -10788,8 +10792,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="26">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="19">
         <v>12046</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -10814,8 +10818,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="26">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="19">
         <v>12051</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -10840,8 +10844,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="26">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="19">
         <v>12056</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -10866,8 +10870,8 @@
         <v>467</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="26">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="19">
         <v>12060</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -10892,8 +10896,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="26">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="19">
         <v>12061</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -10918,8 +10922,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="26">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="19">
         <v>12066</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -10944,8 +10948,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="26">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="19">
         <v>12071</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -10977,213 +10981,213 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="1" customWidth="1"/>
-    <col min="3" max="256" width="9.140625" style="1"/>
-    <col min="257" max="257" width="11.5703125" style="1" customWidth="1"/>
-    <col min="258" max="258" width="50.42578125" style="1" customWidth="1"/>
-    <col min="259" max="512" width="9.140625" style="1"/>
-    <col min="513" max="513" width="11.5703125" style="1" customWidth="1"/>
-    <col min="514" max="514" width="50.42578125" style="1" customWidth="1"/>
-    <col min="515" max="768" width="9.140625" style="1"/>
-    <col min="769" max="769" width="11.5703125" style="1" customWidth="1"/>
-    <col min="770" max="770" width="50.42578125" style="1" customWidth="1"/>
-    <col min="771" max="1024" width="9.140625" style="1"/>
-    <col min="1025" max="1025" width="11.5703125" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="50.42578125" style="1" customWidth="1"/>
-    <col min="1027" max="1280" width="9.140625" style="1"/>
-    <col min="1281" max="1281" width="11.5703125" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="50.42578125" style="1" customWidth="1"/>
-    <col min="1283" max="1536" width="9.140625" style="1"/>
-    <col min="1537" max="1537" width="11.5703125" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="50.42578125" style="1" customWidth="1"/>
-    <col min="1539" max="1792" width="9.140625" style="1"/>
-    <col min="1793" max="1793" width="11.5703125" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="50.42578125" style="1" customWidth="1"/>
-    <col min="1795" max="2048" width="9.140625" style="1"/>
-    <col min="2049" max="2049" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="50.42578125" style="1" customWidth="1"/>
-    <col min="2051" max="2304" width="9.140625" style="1"/>
-    <col min="2305" max="2305" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="50.42578125" style="1" customWidth="1"/>
-    <col min="2307" max="2560" width="9.140625" style="1"/>
-    <col min="2561" max="2561" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="50.42578125" style="1" customWidth="1"/>
-    <col min="2563" max="2816" width="9.140625" style="1"/>
-    <col min="2817" max="2817" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="50.42578125" style="1" customWidth="1"/>
-    <col min="2819" max="3072" width="9.140625" style="1"/>
-    <col min="3073" max="3073" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="50.42578125" style="1" customWidth="1"/>
-    <col min="3075" max="3328" width="9.140625" style="1"/>
-    <col min="3329" max="3329" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="50.42578125" style="1" customWidth="1"/>
-    <col min="3331" max="3584" width="9.140625" style="1"/>
-    <col min="3585" max="3585" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="50.42578125" style="1" customWidth="1"/>
-    <col min="3587" max="3840" width="9.140625" style="1"/>
-    <col min="3841" max="3841" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="50.42578125" style="1" customWidth="1"/>
-    <col min="3843" max="4096" width="9.140625" style="1"/>
-    <col min="4097" max="4097" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="50.42578125" style="1" customWidth="1"/>
-    <col min="4099" max="4352" width="9.140625" style="1"/>
-    <col min="4353" max="4353" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="50.42578125" style="1" customWidth="1"/>
-    <col min="4355" max="4608" width="9.140625" style="1"/>
-    <col min="4609" max="4609" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="50.42578125" style="1" customWidth="1"/>
-    <col min="4611" max="4864" width="9.140625" style="1"/>
-    <col min="4865" max="4865" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="50.42578125" style="1" customWidth="1"/>
-    <col min="4867" max="5120" width="9.140625" style="1"/>
-    <col min="5121" max="5121" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="50.42578125" style="1" customWidth="1"/>
-    <col min="5123" max="5376" width="9.140625" style="1"/>
-    <col min="5377" max="5377" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="50.42578125" style="1" customWidth="1"/>
-    <col min="5379" max="5632" width="9.140625" style="1"/>
-    <col min="5633" max="5633" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="50.42578125" style="1" customWidth="1"/>
-    <col min="5635" max="5888" width="9.140625" style="1"/>
-    <col min="5889" max="5889" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="50.42578125" style="1" customWidth="1"/>
-    <col min="5891" max="6144" width="9.140625" style="1"/>
-    <col min="6145" max="6145" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="50.42578125" style="1" customWidth="1"/>
-    <col min="6147" max="6400" width="9.140625" style="1"/>
-    <col min="6401" max="6401" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="50.42578125" style="1" customWidth="1"/>
-    <col min="6403" max="6656" width="9.140625" style="1"/>
-    <col min="6657" max="6657" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="50.42578125" style="1" customWidth="1"/>
-    <col min="6659" max="6912" width="9.140625" style="1"/>
-    <col min="6913" max="6913" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="50.42578125" style="1" customWidth="1"/>
-    <col min="6915" max="7168" width="9.140625" style="1"/>
-    <col min="7169" max="7169" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="50.42578125" style="1" customWidth="1"/>
-    <col min="7171" max="7424" width="9.140625" style="1"/>
-    <col min="7425" max="7425" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="50.42578125" style="1" customWidth="1"/>
-    <col min="7427" max="7680" width="9.140625" style="1"/>
-    <col min="7681" max="7681" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="50.42578125" style="1" customWidth="1"/>
-    <col min="7683" max="7936" width="9.140625" style="1"/>
-    <col min="7937" max="7937" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="50.42578125" style="1" customWidth="1"/>
-    <col min="7939" max="8192" width="9.140625" style="1"/>
-    <col min="8193" max="8193" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="50.42578125" style="1" customWidth="1"/>
-    <col min="8195" max="8448" width="9.140625" style="1"/>
-    <col min="8449" max="8449" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="50.42578125" style="1" customWidth="1"/>
-    <col min="8451" max="8704" width="9.140625" style="1"/>
-    <col min="8705" max="8705" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="50.42578125" style="1" customWidth="1"/>
-    <col min="8707" max="8960" width="9.140625" style="1"/>
-    <col min="8961" max="8961" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="50.42578125" style="1" customWidth="1"/>
-    <col min="8963" max="9216" width="9.140625" style="1"/>
-    <col min="9217" max="9217" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="50.42578125" style="1" customWidth="1"/>
-    <col min="9219" max="9472" width="9.140625" style="1"/>
-    <col min="9473" max="9473" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="50.42578125" style="1" customWidth="1"/>
-    <col min="9475" max="9728" width="9.140625" style="1"/>
-    <col min="9729" max="9729" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="50.42578125" style="1" customWidth="1"/>
-    <col min="9731" max="9984" width="9.140625" style="1"/>
-    <col min="9985" max="9985" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="50.42578125" style="1" customWidth="1"/>
-    <col min="9987" max="10240" width="9.140625" style="1"/>
-    <col min="10241" max="10241" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="50.42578125" style="1" customWidth="1"/>
-    <col min="10243" max="10496" width="9.140625" style="1"/>
-    <col min="10497" max="10497" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="50.42578125" style="1" customWidth="1"/>
-    <col min="10499" max="10752" width="9.140625" style="1"/>
-    <col min="10753" max="10753" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="50.42578125" style="1" customWidth="1"/>
-    <col min="10755" max="11008" width="9.140625" style="1"/>
-    <col min="11009" max="11009" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="50.42578125" style="1" customWidth="1"/>
-    <col min="11011" max="11264" width="9.140625" style="1"/>
-    <col min="11265" max="11265" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="50.42578125" style="1" customWidth="1"/>
-    <col min="11267" max="11520" width="9.140625" style="1"/>
-    <col min="11521" max="11521" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="50.42578125" style="1" customWidth="1"/>
-    <col min="11523" max="11776" width="9.140625" style="1"/>
-    <col min="11777" max="11777" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="50.42578125" style="1" customWidth="1"/>
-    <col min="11779" max="12032" width="9.140625" style="1"/>
-    <col min="12033" max="12033" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="50.42578125" style="1" customWidth="1"/>
-    <col min="12035" max="12288" width="9.140625" style="1"/>
-    <col min="12289" max="12289" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="50.42578125" style="1" customWidth="1"/>
-    <col min="12291" max="12544" width="9.140625" style="1"/>
-    <col min="12545" max="12545" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="50.42578125" style="1" customWidth="1"/>
-    <col min="12547" max="12800" width="9.140625" style="1"/>
-    <col min="12801" max="12801" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="50.42578125" style="1" customWidth="1"/>
-    <col min="12803" max="13056" width="9.140625" style="1"/>
-    <col min="13057" max="13057" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="50.42578125" style="1" customWidth="1"/>
-    <col min="13059" max="13312" width="9.140625" style="1"/>
-    <col min="13313" max="13313" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="50.42578125" style="1" customWidth="1"/>
-    <col min="13315" max="13568" width="9.140625" style="1"/>
-    <col min="13569" max="13569" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="50.42578125" style="1" customWidth="1"/>
-    <col min="13571" max="13824" width="9.140625" style="1"/>
-    <col min="13825" max="13825" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="50.42578125" style="1" customWidth="1"/>
-    <col min="13827" max="14080" width="9.140625" style="1"/>
-    <col min="14081" max="14081" width="11.5703125" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="50.42578125" style="1" customWidth="1"/>
-    <col min="14083" max="14336" width="9.140625" style="1"/>
-    <col min="14337" max="14337" width="11.5703125" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="50.42578125" style="1" customWidth="1"/>
-    <col min="14339" max="14592" width="9.140625" style="1"/>
-    <col min="14593" max="14593" width="11.5703125" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="50.42578125" style="1" customWidth="1"/>
-    <col min="14595" max="14848" width="9.140625" style="1"/>
-    <col min="14849" max="14849" width="11.5703125" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="50.42578125" style="1" customWidth="1"/>
-    <col min="14851" max="15104" width="9.140625" style="1"/>
-    <col min="15105" max="15105" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="50.42578125" style="1" customWidth="1"/>
-    <col min="15107" max="15360" width="9.140625" style="1"/>
-    <col min="15361" max="15361" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="50.42578125" style="1" customWidth="1"/>
-    <col min="15363" max="15616" width="9.140625" style="1"/>
-    <col min="15617" max="15617" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="50.42578125" style="1" customWidth="1"/>
-    <col min="15619" max="15872" width="9.140625" style="1"/>
-    <col min="15873" max="15873" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="50.42578125" style="1" customWidth="1"/>
-    <col min="15875" max="16128" width="9.140625" style="1"/>
-    <col min="16129" max="16129" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="50.42578125" style="1" customWidth="1"/>
-    <col min="16131" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
+    <col min="3" max="256" width="9.1640625" style="1"/>
+    <col min="257" max="257" width="11.5" style="1" customWidth="1"/>
+    <col min="258" max="258" width="50.5" style="1" customWidth="1"/>
+    <col min="259" max="512" width="9.1640625" style="1"/>
+    <col min="513" max="513" width="11.5" style="1" customWidth="1"/>
+    <col min="514" max="514" width="50.5" style="1" customWidth="1"/>
+    <col min="515" max="768" width="9.1640625" style="1"/>
+    <col min="769" max="769" width="11.5" style="1" customWidth="1"/>
+    <col min="770" max="770" width="50.5" style="1" customWidth="1"/>
+    <col min="771" max="1024" width="9.1640625" style="1"/>
+    <col min="1025" max="1025" width="11.5" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="50.5" style="1" customWidth="1"/>
+    <col min="1027" max="1280" width="9.1640625" style="1"/>
+    <col min="1281" max="1281" width="11.5" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="50.5" style="1" customWidth="1"/>
+    <col min="1283" max="1536" width="9.1640625" style="1"/>
+    <col min="1537" max="1537" width="11.5" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="50.5" style="1" customWidth="1"/>
+    <col min="1539" max="1792" width="9.1640625" style="1"/>
+    <col min="1793" max="1793" width="11.5" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="50.5" style="1" customWidth="1"/>
+    <col min="1795" max="2048" width="9.1640625" style="1"/>
+    <col min="2049" max="2049" width="11.5" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="50.5" style="1" customWidth="1"/>
+    <col min="2051" max="2304" width="9.1640625" style="1"/>
+    <col min="2305" max="2305" width="11.5" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="50.5" style="1" customWidth="1"/>
+    <col min="2307" max="2560" width="9.1640625" style="1"/>
+    <col min="2561" max="2561" width="11.5" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="50.5" style="1" customWidth="1"/>
+    <col min="2563" max="2816" width="9.1640625" style="1"/>
+    <col min="2817" max="2817" width="11.5" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="50.5" style="1" customWidth="1"/>
+    <col min="2819" max="3072" width="9.1640625" style="1"/>
+    <col min="3073" max="3073" width="11.5" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="50.5" style="1" customWidth="1"/>
+    <col min="3075" max="3328" width="9.1640625" style="1"/>
+    <col min="3329" max="3329" width="11.5" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="50.5" style="1" customWidth="1"/>
+    <col min="3331" max="3584" width="9.1640625" style="1"/>
+    <col min="3585" max="3585" width="11.5" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="50.5" style="1" customWidth="1"/>
+    <col min="3587" max="3840" width="9.1640625" style="1"/>
+    <col min="3841" max="3841" width="11.5" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="50.5" style="1" customWidth="1"/>
+    <col min="3843" max="4096" width="9.1640625" style="1"/>
+    <col min="4097" max="4097" width="11.5" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="50.5" style="1" customWidth="1"/>
+    <col min="4099" max="4352" width="9.1640625" style="1"/>
+    <col min="4353" max="4353" width="11.5" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="50.5" style="1" customWidth="1"/>
+    <col min="4355" max="4608" width="9.1640625" style="1"/>
+    <col min="4609" max="4609" width="11.5" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="50.5" style="1" customWidth="1"/>
+    <col min="4611" max="4864" width="9.1640625" style="1"/>
+    <col min="4865" max="4865" width="11.5" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="50.5" style="1" customWidth="1"/>
+    <col min="4867" max="5120" width="9.1640625" style="1"/>
+    <col min="5121" max="5121" width="11.5" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="50.5" style="1" customWidth="1"/>
+    <col min="5123" max="5376" width="9.1640625" style="1"/>
+    <col min="5377" max="5377" width="11.5" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="50.5" style="1" customWidth="1"/>
+    <col min="5379" max="5632" width="9.1640625" style="1"/>
+    <col min="5633" max="5633" width="11.5" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="50.5" style="1" customWidth="1"/>
+    <col min="5635" max="5888" width="9.1640625" style="1"/>
+    <col min="5889" max="5889" width="11.5" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="50.5" style="1" customWidth="1"/>
+    <col min="5891" max="6144" width="9.1640625" style="1"/>
+    <col min="6145" max="6145" width="11.5" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="50.5" style="1" customWidth="1"/>
+    <col min="6147" max="6400" width="9.1640625" style="1"/>
+    <col min="6401" max="6401" width="11.5" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="50.5" style="1" customWidth="1"/>
+    <col min="6403" max="6656" width="9.1640625" style="1"/>
+    <col min="6657" max="6657" width="11.5" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="50.5" style="1" customWidth="1"/>
+    <col min="6659" max="6912" width="9.1640625" style="1"/>
+    <col min="6913" max="6913" width="11.5" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="50.5" style="1" customWidth="1"/>
+    <col min="6915" max="7168" width="9.1640625" style="1"/>
+    <col min="7169" max="7169" width="11.5" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="50.5" style="1" customWidth="1"/>
+    <col min="7171" max="7424" width="9.1640625" style="1"/>
+    <col min="7425" max="7425" width="11.5" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="50.5" style="1" customWidth="1"/>
+    <col min="7427" max="7680" width="9.1640625" style="1"/>
+    <col min="7681" max="7681" width="11.5" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="50.5" style="1" customWidth="1"/>
+    <col min="7683" max="7936" width="9.1640625" style="1"/>
+    <col min="7937" max="7937" width="11.5" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="50.5" style="1" customWidth="1"/>
+    <col min="7939" max="8192" width="9.1640625" style="1"/>
+    <col min="8193" max="8193" width="11.5" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="50.5" style="1" customWidth="1"/>
+    <col min="8195" max="8448" width="9.1640625" style="1"/>
+    <col min="8449" max="8449" width="11.5" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="50.5" style="1" customWidth="1"/>
+    <col min="8451" max="8704" width="9.1640625" style="1"/>
+    <col min="8705" max="8705" width="11.5" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="50.5" style="1" customWidth="1"/>
+    <col min="8707" max="8960" width="9.1640625" style="1"/>
+    <col min="8961" max="8961" width="11.5" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="50.5" style="1" customWidth="1"/>
+    <col min="8963" max="9216" width="9.1640625" style="1"/>
+    <col min="9217" max="9217" width="11.5" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="50.5" style="1" customWidth="1"/>
+    <col min="9219" max="9472" width="9.1640625" style="1"/>
+    <col min="9473" max="9473" width="11.5" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="50.5" style="1" customWidth="1"/>
+    <col min="9475" max="9728" width="9.1640625" style="1"/>
+    <col min="9729" max="9729" width="11.5" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="50.5" style="1" customWidth="1"/>
+    <col min="9731" max="9984" width="9.1640625" style="1"/>
+    <col min="9985" max="9985" width="11.5" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="50.5" style="1" customWidth="1"/>
+    <col min="9987" max="10240" width="9.1640625" style="1"/>
+    <col min="10241" max="10241" width="11.5" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="50.5" style="1" customWidth="1"/>
+    <col min="10243" max="10496" width="9.1640625" style="1"/>
+    <col min="10497" max="10497" width="11.5" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="50.5" style="1" customWidth="1"/>
+    <col min="10499" max="10752" width="9.1640625" style="1"/>
+    <col min="10753" max="10753" width="11.5" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="50.5" style="1" customWidth="1"/>
+    <col min="10755" max="11008" width="9.1640625" style="1"/>
+    <col min="11009" max="11009" width="11.5" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="50.5" style="1" customWidth="1"/>
+    <col min="11011" max="11264" width="9.1640625" style="1"/>
+    <col min="11265" max="11265" width="11.5" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="50.5" style="1" customWidth="1"/>
+    <col min="11267" max="11520" width="9.1640625" style="1"/>
+    <col min="11521" max="11521" width="11.5" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="50.5" style="1" customWidth="1"/>
+    <col min="11523" max="11776" width="9.1640625" style="1"/>
+    <col min="11777" max="11777" width="11.5" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="50.5" style="1" customWidth="1"/>
+    <col min="11779" max="12032" width="9.1640625" style="1"/>
+    <col min="12033" max="12033" width="11.5" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="50.5" style="1" customWidth="1"/>
+    <col min="12035" max="12288" width="9.1640625" style="1"/>
+    <col min="12289" max="12289" width="11.5" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="50.5" style="1" customWidth="1"/>
+    <col min="12291" max="12544" width="9.1640625" style="1"/>
+    <col min="12545" max="12545" width="11.5" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="50.5" style="1" customWidth="1"/>
+    <col min="12547" max="12800" width="9.1640625" style="1"/>
+    <col min="12801" max="12801" width="11.5" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="50.5" style="1" customWidth="1"/>
+    <col min="12803" max="13056" width="9.1640625" style="1"/>
+    <col min="13057" max="13057" width="11.5" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="50.5" style="1" customWidth="1"/>
+    <col min="13059" max="13312" width="9.1640625" style="1"/>
+    <col min="13313" max="13313" width="11.5" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="50.5" style="1" customWidth="1"/>
+    <col min="13315" max="13568" width="9.1640625" style="1"/>
+    <col min="13569" max="13569" width="11.5" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="50.5" style="1" customWidth="1"/>
+    <col min="13571" max="13824" width="9.1640625" style="1"/>
+    <col min="13825" max="13825" width="11.5" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="50.5" style="1" customWidth="1"/>
+    <col min="13827" max="14080" width="9.1640625" style="1"/>
+    <col min="14081" max="14081" width="11.5" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="50.5" style="1" customWidth="1"/>
+    <col min="14083" max="14336" width="9.1640625" style="1"/>
+    <col min="14337" max="14337" width="11.5" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="50.5" style="1" customWidth="1"/>
+    <col min="14339" max="14592" width="9.1640625" style="1"/>
+    <col min="14593" max="14593" width="11.5" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="50.5" style="1" customWidth="1"/>
+    <col min="14595" max="14848" width="9.1640625" style="1"/>
+    <col min="14849" max="14849" width="11.5" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="50.5" style="1" customWidth="1"/>
+    <col min="14851" max="15104" width="9.1640625" style="1"/>
+    <col min="15105" max="15105" width="11.5" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="50.5" style="1" customWidth="1"/>
+    <col min="15107" max="15360" width="9.1640625" style="1"/>
+    <col min="15361" max="15361" width="11.5" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="50.5" style="1" customWidth="1"/>
+    <col min="15363" max="15616" width="9.1640625" style="1"/>
+    <col min="15617" max="15617" width="11.5" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="50.5" style="1" customWidth="1"/>
+    <col min="15619" max="15872" width="9.1640625" style="1"/>
+    <col min="15873" max="15873" width="11.5" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="50.5" style="1" customWidth="1"/>
+    <col min="15875" max="16128" width="9.1640625" style="1"/>
+    <col min="16129" max="16129" width="11.5" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="50.5" style="1" customWidth="1"/>
+    <col min="16131" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>357</v>
       </c>
@@ -11191,7 +11195,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>359</v>
       </c>
@@ -11199,7 +11203,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>361</v>
       </c>
@@ -11207,7 +11211,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>363</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>365</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>367</v>
       </c>
@@ -11231,7 +11235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>369</v>
       </c>
@@ -11239,7 +11243,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>371</v>
       </c>
@@ -11247,7 +11251,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>373</v>
       </c>
@@ -11255,7 +11259,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>375</v>
       </c>
@@ -11263,7 +11267,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -11271,7 +11275,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>378</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>380</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
@@ -11295,7 +11299,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>384</v>
       </c>
